--- a/biology/Zoologie/Actinistia/Actinistia.xlsx
+++ b/biology/Zoologie/Actinistia/Actinistia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Actinistia (actinistiens en français) regroupent essentiellement des taxons lazards de poissons sarcoptérygiens, du groupe (paraphylétique) des crossoptérygiens. Ce groupe ne compte que deux espèces vivantes, des Coelacanthiformes du genre Latimeria.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du grec ancien ἀκτίς, aktis, « rayon » et de ἱστίον, istion, « voile », à cause des nageoires dorsales rayonnées qui ressemblent à des voiles de bateaux.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils sont caractérisés par un squelette interne des membres monobasaux (un seul élément s'attache aux ceintures) et de l'émail vrai sur les dents. Chez le cœlacanthe, la vessie gazeuse forme un poumon dégénéré rempli de graisse. Les nageoires pédonculées sont utilisées comme des échasses, pour le soulever du fond.
 </t>
@@ -573,9 +589,11 @@
           <t>Classification phylogénétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme des Actinistia ci-dessous est établi à partir de plusieurs publications[1],[2],[3],[4],[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme des Actinistia ci-dessous est établi à partir de plusieurs publications :
 </t>
         </is>
       </c>
